--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -100,12 +100,12 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -124,13 +124,13 @@
     <t>hope</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>care</t>
@@ -1087,13 +1087,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.7587719298245614</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>0.9399999999999999</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1113,25 +1113,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7333333333333333</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L20">
+        <v>173</v>
+      </c>
+      <c r="M20">
+        <v>173</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>66</v>
-      </c>
-      <c r="M20">
-        <v>70</v>
-      </c>
-      <c r="N20">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1295,25 +1295,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.6349693251533742</v>
+        <v>0.62</v>
       </c>
       <c r="L27">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1321,25 +1321,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.6115485564304461</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1347,25 +1347,25 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.6115485564304461</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L29">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M29">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="10:17">
